--- a/manual test cases & bug reports & API cases.xlsx
+++ b/manual test cases & bug reports & API cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Graduation project - github\TestingProject-OpenCartDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EA7BF5B-3B84-4BFD-BA9F-D18A6E06BBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{88C8041E-6F3E-4C22-B07B-52E60B3AFD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="api cases" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4167,6 +4168,27 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4359,28 +4381,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5653,7 +5654,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="152.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="133"/>
+      <c r="A2" s="140"/>
       <c r="B2" s="21" t="s">
         <v>13</v>
       </c>
@@ -5664,10 +5665,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="50"/>
-      <c r="F2" s="122" t="s">
+      <c r="F2" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="129" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="50" t="s">
@@ -5688,8 +5689,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="153.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="137" t="s">
+      <c r="A3" s="140"/>
+      <c r="B3" s="144" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="43" t="s">
@@ -5699,8 +5700,8 @@
         <v>25</v>
       </c>
       <c r="E3" s="51"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
       <c r="H3" s="51" t="s">
         <v>26</v>
       </c>
@@ -5719,8 +5720,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="161.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="138"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="43" t="s">
         <v>29</v>
       </c>
@@ -5728,8 +5729,8 @@
         <v>30</v>
       </c>
       <c r="E4" s="51"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
       <c r="H4" s="51" t="s">
         <v>31</v>
       </c>
@@ -5748,8 +5749,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="149.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="133"/>
-      <c r="B5" s="137" t="s">
+      <c r="A5" s="140"/>
+      <c r="B5" s="144" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -5759,8 +5760,8 @@
         <v>36</v>
       </c>
       <c r="E5" s="45"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
       <c r="H5" s="51" t="s">
         <v>37</v>
       </c>
@@ -5779,8 +5780,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="156.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="138"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="43" t="s">
         <v>40</v>
       </c>
@@ -5788,8 +5789,8 @@
         <v>41</v>
       </c>
       <c r="E6" s="45"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
       <c r="H6" s="51" t="s">
         <v>42</v>
       </c>
@@ -5808,8 +5809,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="156" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="133"/>
-      <c r="B7" s="137" t="s">
+      <c r="A7" s="140"/>
+      <c r="B7" s="144" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -5819,8 +5820,8 @@
         <v>46</v>
       </c>
       <c r="E7" s="45"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
       <c r="H7" s="51" t="s">
         <v>47</v>
       </c>
@@ -5839,8 +5840,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="162" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="133"/>
-      <c r="B8" s="139"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="43" t="s">
         <v>50</v>
       </c>
@@ -5848,8 +5849,8 @@
         <v>51</v>
       </c>
       <c r="E8" s="45"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
       <c r="H8" s="51" t="s">
         <v>52</v>
       </c>
@@ -5868,8 +5869,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="141.6" thickTop="1" thickBot="1">
-      <c r="A9" s="133"/>
-      <c r="B9" s="102" t="s">
+      <c r="A9" s="140"/>
+      <c r="B9" s="109" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="43" t="s">
@@ -5879,8 +5880,8 @@
         <v>57</v>
       </c>
       <c r="E9" s="50"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
       <c r="H9" s="50" t="s">
         <v>58</v>
       </c>
@@ -5899,8 +5900,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="141.6" thickTop="1" thickBot="1">
-      <c r="A10" s="133"/>
-      <c r="B10" s="103"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="43" t="s">
         <v>60</v>
       </c>
@@ -5908,8 +5909,8 @@
         <v>61</v>
       </c>
       <c r="E10" s="51"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
       <c r="H10" s="50" t="s">
         <v>62</v>
       </c>
@@ -5928,8 +5929,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="150" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="133"/>
-      <c r="B11" s="104"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="43" t="s">
         <v>64</v>
       </c>
@@ -5937,8 +5938,8 @@
         <v>65</v>
       </c>
       <c r="E11" s="52"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
       <c r="H11" s="50" t="s">
         <v>66</v>
       </c>
@@ -5957,8 +5958,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="155.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="133"/>
-      <c r="B12" s="140" t="s">
+      <c r="A12" s="140"/>
+      <c r="B12" s="147" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="43" t="s">
@@ -5968,8 +5969,8 @@
         <v>71</v>
       </c>
       <c r="E12" s="51"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="H12" s="50" t="s">
         <v>72</v>
       </c>
@@ -5988,8 +5989,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="152.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="133"/>
-      <c r="B13" s="135"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="142"/>
       <c r="C13" s="43" t="s">
         <v>75</v>
       </c>
@@ -5997,8 +5998,8 @@
         <v>76</v>
       </c>
       <c r="E13" s="52"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
       <c r="H13" s="50" t="s">
         <v>77</v>
       </c>
@@ -6017,8 +6018,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="168" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="133"/>
-      <c r="B14" s="141"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="148"/>
       <c r="C14" s="43" t="s">
         <v>80</v>
       </c>
@@ -6026,8 +6027,8 @@
         <v>81</v>
       </c>
       <c r="E14" s="44"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
       <c r="H14" s="50" t="s">
         <v>82</v>
       </c>
@@ -6046,8 +6047,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="165.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134" t="s">
+      <c r="A15" s="140"/>
+      <c r="B15" s="141" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -6057,8 +6058,8 @@
         <v>86</v>
       </c>
       <c r="E15" s="51"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
       <c r="H15" s="50" t="s">
         <v>87</v>
       </c>
@@ -6077,8 +6078,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="141.6" thickTop="1" thickBot="1">
-      <c r="A16" s="133"/>
-      <c r="B16" s="135"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="142"/>
       <c r="C16" s="43" t="s">
         <v>89</v>
       </c>
@@ -6086,8 +6087,8 @@
         <v>90</v>
       </c>
       <c r="E16" s="51"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
       <c r="H16" s="50" t="s">
         <v>91</v>
       </c>
@@ -6106,8 +6107,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="156.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="133"/>
-      <c r="B17" s="135"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="43" t="s">
         <v>94</v>
       </c>
@@ -6115,8 +6116,8 @@
         <v>95</v>
       </c>
       <c r="E17" s="51"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
       <c r="H17" s="50" t="s">
         <v>96</v>
       </c>
@@ -6135,8 +6136,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="141.6" thickTop="1" thickBot="1">
-      <c r="A18" s="133"/>
-      <c r="B18" s="136"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="43" t="s">
         <v>98</v>
       </c>
@@ -6144,8 +6145,8 @@
         <v>99</v>
       </c>
       <c r="E18" s="52"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
       <c r="H18" s="50" t="s">
         <v>100</v>
       </c>
@@ -6164,7 +6165,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="160.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="133"/>
+      <c r="A19" s="140"/>
       <c r="B19" s="53" t="s">
         <v>102</v>
       </c>
@@ -6175,8 +6176,8 @@
         <v>104</v>
       </c>
       <c r="E19" s="46"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
       <c r="H19" s="50" t="s">
         <v>105</v>
       </c>
@@ -6195,7 +6196,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="156.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="133"/>
+      <c r="A20" s="140"/>
       <c r="B20" s="22" t="s">
         <v>107</v>
       </c>
@@ -6206,8 +6207,8 @@
         <v>109</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
       <c r="H20" s="50" t="s">
         <v>110</v>
       </c>
@@ -6267,7 +6268,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="75.599999999999994" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="149" t="s">
         <v>113</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -6280,16 +6281,16 @@
         <v>362</v>
       </c>
       <c r="E22" s="22"/>
-      <c r="F22" s="140" t="s">
+      <c r="F22" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="140" t="s">
+      <c r="G22" s="147" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="I22" s="145" t="s">
+      <c r="I22" s="152" t="s">
         <v>363</v>
       </c>
       <c r="J22" s="22" t="s">
@@ -6304,8 +6305,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="75.599999999999994" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="143"/>
-      <c r="B23" s="144" t="s">
+      <c r="A23" s="150"/>
+      <c r="B23" s="151" t="s">
         <v>365</v>
       </c>
       <c r="C23" s="60" t="s">
@@ -6315,12 +6316,12 @@
         <v>114</v>
       </c>
       <c r="E23" s="60"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
       <c r="H23" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="I23" s="146"/>
+      <c r="I23" s="153"/>
       <c r="J23" s="60" t="s">
         <v>432</v>
       </c>
@@ -6333,8 +6334,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="75.599999999999994" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="61" t="s">
         <v>120</v>
       </c>
@@ -6342,12 +6343,12 @@
         <v>118</v>
       </c>
       <c r="E24" s="61"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="I24" s="146"/>
+      <c r="I24" s="153"/>
       <c r="J24" s="61" t="s">
         <v>428</v>
       </c>
@@ -6360,8 +6361,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="75.599999999999994" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="143"/>
-      <c r="B25" s="144"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="61" t="s">
         <v>123</v>
       </c>
@@ -6369,12 +6370,12 @@
         <v>121</v>
       </c>
       <c r="E25" s="61"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
       <c r="H25" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="146"/>
+      <c r="I25" s="153"/>
       <c r="J25" s="61" t="s">
         <v>429</v>
       </c>
@@ -6387,8 +6388,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="75.599999999999994" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="143"/>
-      <c r="B26" s="144"/>
+      <c r="A26" s="150"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="61" t="s">
         <v>126</v>
       </c>
@@ -6396,12 +6397,12 @@
         <v>124</v>
       </c>
       <c r="E26" s="61"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="146"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="61" t="s">
         <v>430</v>
       </c>
@@ -6414,8 +6415,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="75.599999999999994" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="143"/>
-      <c r="B27" s="144"/>
+      <c r="A27" s="150"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="62" t="s">
         <v>129</v>
       </c>
@@ -6423,12 +6424,12 @@
         <v>127</v>
       </c>
       <c r="E27" s="62"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
       <c r="H27" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="I27" s="146"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="62" t="s">
         <v>431</v>
       </c>
@@ -6441,8 +6442,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="82.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144" t="s">
+      <c r="A28" s="150"/>
+      <c r="B28" s="151" t="s">
         <v>366</v>
       </c>
       <c r="C28" s="60" t="s">
@@ -6452,12 +6453,12 @@
         <v>130</v>
       </c>
       <c r="E28" s="60"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
       <c r="H28" s="60" t="s">
         <v>442</v>
       </c>
-      <c r="I28" s="146"/>
+      <c r="I28" s="153"/>
       <c r="J28" s="60" t="s">
         <v>443</v>
       </c>
@@ -6470,8 +6471,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="82.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="143"/>
-      <c r="B29" s="144"/>
+      <c r="A29" s="150"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="61" t="s">
         <v>368</v>
       </c>
@@ -6479,12 +6480,12 @@
         <v>131</v>
       </c>
       <c r="E29" s="61"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
       <c r="H29" s="61" t="s">
         <v>434</v>
       </c>
-      <c r="I29" s="146"/>
+      <c r="I29" s="153"/>
       <c r="J29" s="61" t="s">
         <v>444</v>
       </c>
@@ -6497,8 +6498,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="82.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="143"/>
-      <c r="B30" s="144"/>
+      <c r="A30" s="150"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="61" t="s">
         <v>369</v>
       </c>
@@ -6506,12 +6507,12 @@
         <v>132</v>
       </c>
       <c r="E30" s="61"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
       <c r="H30" s="61" t="s">
         <v>433</v>
       </c>
-      <c r="I30" s="146"/>
+      <c r="I30" s="153"/>
       <c r="J30" s="61" t="s">
         <v>445</v>
       </c>
@@ -6524,8 +6525,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="82.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="143"/>
-      <c r="B31" s="144"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="62" t="s">
         <v>370</v>
       </c>
@@ -6533,12 +6534,12 @@
         <v>133</v>
       </c>
       <c r="E31" s="62"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
       <c r="H31" s="62" t="s">
         <v>435</v>
       </c>
-      <c r="I31" s="146"/>
+      <c r="I31" s="153"/>
       <c r="J31" s="62" t="s">
         <v>446</v>
       </c>
@@ -6551,8 +6552,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="111.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="143"/>
-      <c r="B32" s="144" t="s">
+      <c r="A32" s="150"/>
+      <c r="B32" s="151" t="s">
         <v>371</v>
       </c>
       <c r="C32" s="60" t="s">
@@ -6562,12 +6563,12 @@
         <v>373</v>
       </c>
       <c r="E32" s="60"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
       <c r="H32" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="I32" s="146"/>
+      <c r="I32" s="153"/>
       <c r="J32" s="60" t="s">
         <v>375</v>
       </c>
@@ -6580,8 +6581,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="111.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="143"/>
-      <c r="B33" s="144"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="62" t="s">
         <v>376</v>
       </c>
@@ -6589,12 +6590,12 @@
         <v>377</v>
       </c>
       <c r="E33" s="62"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
       <c r="H33" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="I33" s="146"/>
+      <c r="I33" s="153"/>
       <c r="J33" s="62" t="s">
         <v>379</v>
       </c>
@@ -6607,8 +6608,8 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="117" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A34" s="143"/>
-      <c r="B34" s="144" t="s">
+      <c r="A34" s="150"/>
+      <c r="B34" s="151" t="s">
         <v>380</v>
       </c>
       <c r="C34" s="60" t="s">
@@ -6618,12 +6619,12 @@
         <v>134</v>
       </c>
       <c r="E34" s="60"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
       <c r="H34" s="60" t="s">
         <v>436</v>
       </c>
-      <c r="I34" s="146"/>
+      <c r="I34" s="153"/>
       <c r="J34" s="60" t="s">
         <v>135</v>
       </c>
@@ -6636,8 +6637,8 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="111.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A35" s="143"/>
-      <c r="B35" s="144"/>
+      <c r="A35" s="150"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="62" t="s">
         <v>143</v>
       </c>
@@ -6645,12 +6646,12 @@
         <v>136</v>
       </c>
       <c r="E35" s="62"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
       <c r="H35" s="62" t="s">
         <v>437</v>
       </c>
-      <c r="I35" s="147"/>
+      <c r="I35" s="154"/>
       <c r="J35" s="62" t="s">
         <v>137</v>
       </c>
@@ -6663,8 +6664,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="111.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A36" s="143"/>
-      <c r="B36" s="144" t="s">
+      <c r="A36" s="150"/>
+      <c r="B36" s="151" t="s">
         <v>381</v>
       </c>
       <c r="C36" s="60" t="s">
@@ -6674,8 +6675,8 @@
         <v>383</v>
       </c>
       <c r="E36" s="60"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
       <c r="H36" s="60" t="s">
         <v>384</v>
       </c>
@@ -6694,8 +6695,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="111.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A37" s="143"/>
-      <c r="B37" s="144"/>
+      <c r="A37" s="150"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="62" t="s">
         <v>386</v>
       </c>
@@ -6703,8 +6704,8 @@
         <v>387</v>
       </c>
       <c r="E37" s="62"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
       <c r="H37" s="62" t="s">
         <v>388</v>
       </c>
@@ -6723,7 +6724,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="111.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="143"/>
+      <c r="A38" s="150"/>
       <c r="B38" s="22" t="s">
         <v>390</v>
       </c>
@@ -6734,12 +6735,12 @@
         <v>392</v>
       </c>
       <c r="E38" s="22"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
       <c r="H38" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="I38" s="151" t="s">
+      <c r="I38" s="158" t="s">
         <v>363</v>
       </c>
       <c r="J38" s="22" t="s">
@@ -6754,8 +6755,8 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="91.2" customHeight="1" thickTop="1">
-      <c r="A39" s="143"/>
-      <c r="B39" s="148" t="s">
+      <c r="A39" s="150"/>
+      <c r="B39" s="155" t="s">
         <v>395</v>
       </c>
       <c r="C39" s="60" t="s">
@@ -6765,12 +6766,12 @@
         <v>138</v>
       </c>
       <c r="E39" s="60"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="135"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
       <c r="H39" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="I39" s="152"/>
+      <c r="I39" s="159"/>
       <c r="J39" s="60" t="s">
         <v>139</v>
       </c>
@@ -6783,8 +6784,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="91.2" customHeight="1">
-      <c r="A40" s="143"/>
-      <c r="B40" s="149"/>
+      <c r="A40" s="150"/>
+      <c r="B40" s="156"/>
       <c r="C40" s="61" t="s">
         <v>448</v>
       </c>
@@ -6792,12 +6793,12 @@
         <v>141</v>
       </c>
       <c r="E40" s="61"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
       <c r="H40" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="I40" s="152"/>
+      <c r="I40" s="159"/>
       <c r="J40" s="61" t="s">
         <v>440</v>
       </c>
@@ -6810,8 +6811,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="90.6" customHeight="1">
-      <c r="A41" s="143"/>
-      <c r="B41" s="149"/>
+      <c r="A41" s="150"/>
+      <c r="B41" s="156"/>
       <c r="C41" s="61" t="s">
         <v>449</v>
       </c>
@@ -6819,12 +6820,12 @@
         <v>144</v>
       </c>
       <c r="E41" s="61"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="142"/>
       <c r="H41" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="I41" s="152"/>
+      <c r="I41" s="159"/>
       <c r="J41" s="61" t="s">
         <v>441</v>
       </c>
@@ -6837,8 +6838,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="83.4" customHeight="1">
-      <c r="A42" s="143"/>
-      <c r="B42" s="149"/>
+      <c r="A42" s="150"/>
+      <c r="B42" s="156"/>
       <c r="C42" s="61" t="s">
         <v>450</v>
       </c>
@@ -6846,12 +6847,12 @@
         <v>146</v>
       </c>
       <c r="E42" s="61"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
       <c r="H42" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="I42" s="152"/>
+      <c r="I42" s="159"/>
       <c r="J42" s="61" t="s">
         <v>441</v>
       </c>
@@ -6864,8 +6865,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="83.4" customHeight="1">
-      <c r="A43" s="143"/>
-      <c r="B43" s="149"/>
+      <c r="A43" s="150"/>
+      <c r="B43" s="156"/>
       <c r="C43" s="61" t="s">
         <v>451</v>
       </c>
@@ -6873,12 +6874,12 @@
         <v>453</v>
       </c>
       <c r="E43" s="61"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
       <c r="H43" s="61" t="s">
         <v>455</v>
       </c>
-      <c r="I43" s="152"/>
+      <c r="I43" s="159"/>
       <c r="J43" s="61" t="s">
         <v>457</v>
       </c>
@@ -6891,8 +6892,8 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="83.4" customHeight="1" thickBot="1">
-      <c r="A44" s="143"/>
-      <c r="B44" s="150"/>
+      <c r="A44" s="150"/>
+      <c r="B44" s="157"/>
       <c r="C44" s="62" t="s">
         <v>452</v>
       </c>
@@ -6900,12 +6901,12 @@
         <v>454</v>
       </c>
       <c r="E44" s="62"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
+      <c r="F44" s="143"/>
+      <c r="G44" s="143"/>
       <c r="H44" s="62" t="s">
         <v>456</v>
       </c>
-      <c r="I44" s="152"/>
+      <c r="I44" s="159"/>
       <c r="J44" s="62" t="s">
         <v>458</v>
       </c>
@@ -6960,10 +6961,10 @@
       <c r="N45" s="2"/>
     </row>
     <row r="46" spans="1:14" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="102" t="s">
+      <c r="A46" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="108" t="s">
+      <c r="B46" s="115" t="s">
         <v>396</v>
       </c>
       <c r="C46" s="50" t="s">
@@ -6976,7 +6977,7 @@
       <c r="F46" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="G46" s="125" t="s">
+      <c r="G46" s="132" t="s">
         <v>17</v>
       </c>
       <c r="H46" s="50" t="s">
@@ -6997,8 +6998,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="58.5" customHeight="1">
-      <c r="A47" s="103"/>
-      <c r="B47" s="109"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="50" t="s">
         <v>184</v>
       </c>
@@ -7009,7 +7010,7 @@
       <c r="F47" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="G47" s="126"/>
+      <c r="G47" s="133"/>
       <c r="H47" s="51" t="s">
         <v>154</v>
       </c>
@@ -7028,8 +7029,8 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A48" s="104"/>
-      <c r="B48" s="110"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="117"/>
       <c r="C48" s="50" t="s">
         <v>189</v>
       </c>
@@ -7040,7 +7041,7 @@
       <c r="F48" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="126"/>
+      <c r="G48" s="133"/>
       <c r="H48" s="52" t="s">
         <v>158</v>
       </c>
@@ -7059,10 +7060,10 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="115" t="s">
         <v>397</v>
       </c>
       <c r="C49" s="50" t="s">
@@ -7075,7 +7076,7 @@
       <c r="F49" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="G49" s="126"/>
+      <c r="G49" s="133"/>
       <c r="H49" s="50" t="s">
         <v>163</v>
       </c>
@@ -7094,8 +7095,8 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A50" s="103"/>
-      <c r="B50" s="109"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="116"/>
       <c r="C50" s="50" t="s">
         <v>411</v>
       </c>
@@ -7106,7 +7107,7 @@
       <c r="F50" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="G50" s="126"/>
+      <c r="G50" s="133"/>
       <c r="H50" s="51" t="s">
         <v>167</v>
       </c>
@@ -7125,8 +7126,8 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A51" s="103"/>
-      <c r="B51" s="110"/>
+      <c r="A51" s="110"/>
+      <c r="B51" s="117"/>
       <c r="C51" s="50" t="s">
         <v>412</v>
       </c>
@@ -7137,7 +7138,7 @@
       <c r="F51" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="G51" s="126"/>
+      <c r="G51" s="133"/>
       <c r="H51" s="52" t="s">
         <v>171</v>
       </c>
@@ -7156,7 +7157,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="36.75" customHeight="1">
-      <c r="A52" s="104"/>
+      <c r="A52" s="111"/>
       <c r="B52" s="17" t="s">
         <v>398</v>
       </c>
@@ -7170,7 +7171,7 @@
       <c r="F52" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="G52" s="126"/>
+      <c r="G52" s="133"/>
       <c r="H52" s="46" t="s">
         <v>174</v>
       </c>
@@ -7187,10 +7188,10 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="63.75" customHeight="1">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="B53" s="108" t="s">
+      <c r="B53" s="115" t="s">
         <v>399</v>
       </c>
       <c r="C53" s="50" t="s">
@@ -7203,7 +7204,7 @@
       <c r="F53" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="G53" s="126"/>
+      <c r="G53" s="133"/>
       <c r="H53" s="50" t="s">
         <v>179</v>
       </c>
@@ -7222,8 +7223,8 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="57.75" customHeight="1">
-      <c r="A54" s="103"/>
-      <c r="B54" s="109"/>
+      <c r="A54" s="110"/>
+      <c r="B54" s="116"/>
       <c r="C54" s="50" t="s">
         <v>415</v>
       </c>
@@ -7234,7 +7235,7 @@
       <c r="F54" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="G54" s="126"/>
+      <c r="G54" s="133"/>
       <c r="H54" s="51" t="s">
         <v>183</v>
       </c>
@@ -7253,8 +7254,8 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A55" s="103"/>
-      <c r="B55" s="109"/>
+      <c r="A55" s="110"/>
+      <c r="B55" s="116"/>
       <c r="C55" s="50" t="s">
         <v>524</v>
       </c>
@@ -7265,7 +7266,7 @@
       <c r="F55" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="G55" s="126"/>
+      <c r="G55" s="133"/>
       <c r="H55" s="51" t="s">
         <v>187</v>
       </c>
@@ -7284,8 +7285,8 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="63" customHeight="1">
-      <c r="A56" s="104"/>
-      <c r="B56" s="110"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="50" t="s">
         <v>525</v>
       </c>
@@ -7296,7 +7297,7 @@
       <c r="F56" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="G56" s="127"/>
+      <c r="G56" s="134"/>
       <c r="H56" s="52" t="s">
         <v>192</v>
       </c>
@@ -7358,10 +7359,10 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="50.4" customHeight="1">
-      <c r="A58" s="105" t="s">
+      <c r="A58" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="B58" s="111" t="s">
+      <c r="B58" s="118" t="s">
         <v>400</v>
       </c>
       <c r="C58" s="34" t="s">
@@ -7376,7 +7377,7 @@
       <c r="F58" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="G58" s="121" t="s">
+      <c r="G58" s="128" t="s">
         <v>17</v>
       </c>
       <c r="H58" s="34" t="s">
@@ -7399,8 +7400,8 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="50.4" customHeight="1">
-      <c r="A59" s="106"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="34" t="s">
         <v>245</v>
       </c>
@@ -7413,7 +7414,7 @@
       <c r="F59" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="G59" s="119"/>
+      <c r="G59" s="126"/>
       <c r="H59" s="35" t="s">
         <v>204</v>
       </c>
@@ -7434,8 +7435,8 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="50.4" customHeight="1">
-      <c r="A60" s="107"/>
-      <c r="B60" s="113"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="120"/>
       <c r="C60" s="34" t="s">
         <v>251</v>
       </c>
@@ -7448,7 +7449,7 @@
       <c r="F60" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="G60" s="119"/>
+      <c r="G60" s="126"/>
       <c r="H60" s="36" t="s">
         <v>208</v>
       </c>
@@ -7469,10 +7470,10 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="140.4">
-      <c r="A61" s="105" t="s">
+      <c r="A61" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="118" t="s">
         <v>401</v>
       </c>
       <c r="C61" s="34" t="s">
@@ -7487,7 +7488,7 @@
       <c r="F61" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="G61" s="119"/>
+      <c r="G61" s="126"/>
       <c r="H61" s="34" t="s">
         <v>214</v>
       </c>
@@ -7508,8 +7509,8 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="46.8">
-      <c r="A62" s="106"/>
-      <c r="B62" s="112"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="34" t="s">
         <v>264</v>
       </c>
@@ -7522,7 +7523,7 @@
       <c r="F62" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="G62" s="119"/>
+      <c r="G62" s="126"/>
       <c r="H62" s="35" t="s">
         <v>219</v>
       </c>
@@ -7543,8 +7544,8 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="62.4">
-      <c r="A63" s="107"/>
-      <c r="B63" s="113"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="120"/>
       <c r="C63" s="34" t="s">
         <v>271</v>
       </c>
@@ -7557,7 +7558,7 @@
       <c r="F63" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="G63" s="119"/>
+      <c r="G63" s="126"/>
       <c r="H63" s="36" t="s">
         <v>224</v>
       </c>
@@ -7578,10 +7579,10 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="31.2">
-      <c r="A64" s="105" t="s">
+      <c r="A64" s="112" t="s">
         <v>227</v>
       </c>
-      <c r="B64" s="111" t="s">
+      <c r="B64" s="118" t="s">
         <v>402</v>
       </c>
       <c r="C64" s="34" t="s">
@@ -7596,7 +7597,7 @@
       <c r="F64" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="G64" s="119"/>
+      <c r="G64" s="126"/>
       <c r="H64" s="34" t="s">
         <v>230</v>
       </c>
@@ -7617,8 +7618,8 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="46.8">
-      <c r="A65" s="106"/>
-      <c r="B65" s="112"/>
+      <c r="A65" s="113"/>
+      <c r="B65" s="119"/>
       <c r="C65" s="34" t="s">
         <v>416</v>
       </c>
@@ -7631,7 +7632,7 @@
       <c r="F65" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="G65" s="119"/>
+      <c r="G65" s="126"/>
       <c r="H65" s="35" t="s">
         <v>235</v>
       </c>
@@ -7652,8 +7653,8 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="46.8">
-      <c r="A66" s="107"/>
-      <c r="B66" s="113"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="120"/>
       <c r="C66" s="34" t="s">
         <v>417</v>
       </c>
@@ -7666,7 +7667,7 @@
       <c r="F66" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="G66" s="119"/>
+      <c r="G66" s="126"/>
       <c r="H66" s="36" t="s">
         <v>241</v>
       </c>
@@ -7687,10 +7688,10 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="46.8">
-      <c r="A67" s="105" t="s">
+      <c r="A67" s="112" t="s">
         <v>244</v>
       </c>
-      <c r="B67" s="111" t="s">
+      <c r="B67" s="118" t="s">
         <v>403</v>
       </c>
       <c r="C67" s="34" t="s">
@@ -7705,7 +7706,7 @@
       <c r="F67" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="G67" s="119"/>
+      <c r="G67" s="126"/>
       <c r="H67" s="34" t="s">
         <v>248</v>
       </c>
@@ -7726,8 +7727,8 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="31.2">
-      <c r="A68" s="107"/>
-      <c r="B68" s="113"/>
+      <c r="A68" s="114"/>
+      <c r="B68" s="120"/>
       <c r="C68" s="34" t="s">
         <v>419</v>
       </c>
@@ -7740,7 +7741,7 @@
       <c r="F68" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="G68" s="119"/>
+      <c r="G68" s="126"/>
       <c r="H68" s="36" t="s">
         <v>254</v>
       </c>
@@ -7761,10 +7762,10 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="109.2">
-      <c r="A69" s="105" t="s">
+      <c r="A69" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="B69" s="111" t="s">
+      <c r="B69" s="118" t="s">
         <v>404</v>
       </c>
       <c r="C69" s="34" t="s">
@@ -7779,7 +7780,7 @@
       <c r="F69" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="G69" s="119"/>
+      <c r="G69" s="126"/>
       <c r="H69" s="34" t="s">
         <v>261</v>
       </c>
@@ -7800,8 +7801,8 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="31.2">
-      <c r="A70" s="107"/>
-      <c r="B70" s="113"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="120"/>
       <c r="C70" s="34" t="s">
         <v>421</v>
       </c>
@@ -7814,7 +7815,7 @@
       <c r="F70" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="G70" s="119"/>
+      <c r="G70" s="126"/>
       <c r="H70" s="36" t="s">
         <v>267</v>
       </c>
@@ -7853,7 +7854,7 @@
       <c r="F71" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="G71" s="119"/>
+      <c r="G71" s="126"/>
       <c r="H71" s="37" t="s">
         <v>273</v>
       </c>
@@ -7892,7 +7893,7 @@
       <c r="F72" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="118"/>
+      <c r="G72" s="125"/>
       <c r="H72" s="37" t="s">
         <v>279</v>
       </c>
@@ -7953,786 +7954,786 @@
       <c r="N73" s="32"/>
     </row>
     <row r="74" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A74" s="99" t="s">
+      <c r="A74" s="106" t="s">
         <v>282</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B74" s="103" t="s">
         <v>407</v>
       </c>
-      <c r="C74" s="116" t="s">
+      <c r="C74" s="123" t="s">
         <v>339</v>
       </c>
-      <c r="D74" s="116" t="s">
+      <c r="D74" s="123" t="s">
         <v>283</v>
       </c>
-      <c r="E74" s="116"/>
-      <c r="F74" s="116" t="s">
+      <c r="E74" s="123"/>
+      <c r="F74" s="123" t="s">
         <v>284</v>
       </c>
-      <c r="G74" s="121" t="s">
+      <c r="G74" s="128" t="s">
         <v>17</v>
       </c>
       <c r="H74" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="I74" s="116" t="s">
+      <c r="I74" s="123" t="s">
         <v>286</v>
       </c>
-      <c r="J74" s="116" t="s">
+      <c r="J74" s="123" t="s">
         <v>287</v>
       </c>
-      <c r="K74" s="116" t="s">
+      <c r="K74" s="123" t="s">
         <v>288</v>
       </c>
-      <c r="L74" s="130" t="s">
+      <c r="L74" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="M74" s="132" t="s">
+      <c r="M74" s="139" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A75" s="100"/>
-      <c r="B75" s="97"/>
-      <c r="C75" s="114"/>
-      <c r="D75" s="114"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
-      <c r="G75" s="119"/>
+      <c r="A75" s="107"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="121"/>
+      <c r="D75" s="121"/>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="126"/>
       <c r="H75" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="I75" s="114"/>
-      <c r="J75" s="114"/>
-      <c r="K75" s="114"/>
-      <c r="L75" s="119"/>
-      <c r="M75" s="128"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="121"/>
+      <c r="K75" s="121"/>
+      <c r="L75" s="126"/>
+      <c r="M75" s="135"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="100"/>
-      <c r="B76" s="97"/>
-      <c r="C76" s="114"/>
-      <c r="D76" s="114"/>
-      <c r="E76" s="114"/>
-      <c r="F76" s="114"/>
-      <c r="G76" s="119"/>
+      <c r="A76" s="107"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="121"/>
+      <c r="E76" s="121"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="126"/>
       <c r="H76" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="I76" s="114"/>
-      <c r="J76" s="114"/>
-      <c r="K76" s="114"/>
-      <c r="L76" s="119"/>
-      <c r="M76" s="128"/>
+      <c r="I76" s="121"/>
+      <c r="J76" s="121"/>
+      <c r="K76" s="121"/>
+      <c r="L76" s="126"/>
+      <c r="M76" s="135"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="100"/>
-      <c r="B77" s="97"/>
-      <c r="C77" s="114"/>
-      <c r="D77" s="114"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="114"/>
-      <c r="G77" s="119"/>
+      <c r="A77" s="107"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="121"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="126"/>
       <c r="H77" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="I77" s="114"/>
-      <c r="J77" s="114"/>
-      <c r="K77" s="114"/>
-      <c r="L77" s="119"/>
-      <c r="M77" s="128"/>
+      <c r="I77" s="121"/>
+      <c r="J77" s="121"/>
+      <c r="K77" s="121"/>
+      <c r="L77" s="126"/>
+      <c r="M77" s="135"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="100"/>
-      <c r="B78" s="97"/>
-      <c r="C78" s="114"/>
-      <c r="D78" s="114"/>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114"/>
-      <c r="G78" s="119"/>
+      <c r="A78" s="107"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="121"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="121"/>
+      <c r="G78" s="126"/>
       <c r="H78" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="114"/>
-      <c r="L78" s="119"/>
-      <c r="M78" s="128"/>
+      <c r="I78" s="121"/>
+      <c r="J78" s="121"/>
+      <c r="K78" s="121"/>
+      <c r="L78" s="126"/>
+      <c r="M78" s="135"/>
     </row>
     <row r="79" spans="1:14" ht="16.2" thickBot="1">
-      <c r="A79" s="100"/>
-      <c r="B79" s="97"/>
-      <c r="C79" s="114"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="119"/>
+      <c r="A79" s="107"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
+      <c r="E79" s="121"/>
+      <c r="F79" s="121"/>
+      <c r="G79" s="126"/>
       <c r="H79" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="I79" s="114"/>
-      <c r="J79" s="114"/>
-      <c r="K79" s="114"/>
-      <c r="L79" s="120"/>
-      <c r="M79" s="128"/>
+      <c r="I79" s="121"/>
+      <c r="J79" s="121"/>
+      <c r="K79" s="121"/>
+      <c r="L79" s="127"/>
+      <c r="M79" s="135"/>
     </row>
     <row r="80" spans="1:14" ht="15.6" customHeight="1" thickTop="1">
-      <c r="A80" s="100"/>
-      <c r="B80" s="97"/>
-      <c r="C80" s="116" t="s">
+      <c r="A80" s="107"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="123" t="s">
         <v>346</v>
       </c>
-      <c r="D80" s="114" t="s">
+      <c r="D80" s="121" t="s">
         <v>294</v>
       </c>
-      <c r="E80" s="114"/>
-      <c r="F80" s="114" t="s">
+      <c r="E80" s="121"/>
+      <c r="F80" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="G80" s="119"/>
+      <c r="G80" s="126"/>
       <c r="H80" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="I80" s="114" t="s">
+      <c r="I80" s="121" t="s">
         <v>297</v>
       </c>
-      <c r="J80" s="114" t="s">
+      <c r="J80" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="K80" s="114" t="s">
+      <c r="K80" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="L80" s="131" t="s">
+      <c r="L80" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="M80" s="128" t="s">
+      <c r="M80" s="135" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A81" s="100"/>
-      <c r="B81" s="97"/>
-      <c r="C81" s="114"/>
-      <c r="D81" s="114"/>
-      <c r="E81" s="114"/>
-      <c r="F81" s="114"/>
-      <c r="G81" s="119"/>
+      <c r="A81" s="107"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="121"/>
+      <c r="D81" s="121"/>
+      <c r="E81" s="121"/>
+      <c r="F81" s="121"/>
+      <c r="G81" s="126"/>
       <c r="H81" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="I81" s="114"/>
-      <c r="J81" s="114"/>
-      <c r="K81" s="114"/>
-      <c r="L81" s="119"/>
-      <c r="M81" s="128"/>
+      <c r="I81" s="121"/>
+      <c r="J81" s="121"/>
+      <c r="K81" s="121"/>
+      <c r="L81" s="126"/>
+      <c r="M81" s="135"/>
     </row>
     <row r="82" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A82" s="100"/>
-      <c r="B82" s="97"/>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="119"/>
+      <c r="A82" s="107"/>
+      <c r="B82" s="104"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="121"/>
+      <c r="E82" s="121"/>
+      <c r="F82" s="121"/>
+      <c r="G82" s="126"/>
       <c r="H82" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="I82" s="114"/>
-      <c r="J82" s="114"/>
-      <c r="K82" s="114"/>
-      <c r="L82" s="119"/>
-      <c r="M82" s="128"/>
+      <c r="I82" s="121"/>
+      <c r="J82" s="121"/>
+      <c r="K82" s="121"/>
+      <c r="L82" s="126"/>
+      <c r="M82" s="135"/>
     </row>
     <row r="83" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A83" s="100"/>
-      <c r="B83" s="97"/>
-      <c r="C83" s="114"/>
-      <c r="D83" s="114"/>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
-      <c r="G83" s="119"/>
+      <c r="A83" s="107"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="121"/>
+      <c r="G83" s="126"/>
       <c r="H83" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="I83" s="114"/>
-      <c r="J83" s="114"/>
-      <c r="K83" s="114"/>
-      <c r="L83" s="119"/>
-      <c r="M83" s="128"/>
+      <c r="I83" s="121"/>
+      <c r="J83" s="121"/>
+      <c r="K83" s="121"/>
+      <c r="L83" s="126"/>
+      <c r="M83" s="135"/>
     </row>
     <row r="84" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A84" s="100"/>
-      <c r="B84" s="97"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
-      <c r="G84" s="119"/>
+      <c r="A84" s="107"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="121"/>
+      <c r="D84" s="121"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="121"/>
+      <c r="G84" s="126"/>
       <c r="H84" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="I84" s="114"/>
-      <c r="J84" s="114"/>
-      <c r="K84" s="114"/>
-      <c r="L84" s="119"/>
-      <c r="M84" s="128"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="121"/>
+      <c r="K84" s="121"/>
+      <c r="L84" s="126"/>
+      <c r="M84" s="135"/>
     </row>
     <row r="85" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A85" s="100"/>
-      <c r="B85" s="97"/>
-      <c r="C85" s="114"/>
-      <c r="D85" s="114"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="119"/>
+      <c r="A85" s="107"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="121"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
+      <c r="G85" s="126"/>
       <c r="H85" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="I85" s="114"/>
-      <c r="J85" s="114"/>
-      <c r="K85" s="114"/>
-      <c r="L85" s="120"/>
-      <c r="M85" s="128"/>
+      <c r="I85" s="121"/>
+      <c r="J85" s="121"/>
+      <c r="K85" s="121"/>
+      <c r="L85" s="127"/>
+      <c r="M85" s="135"/>
     </row>
     <row r="86" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A86" s="100"/>
-      <c r="B86" s="97"/>
-      <c r="C86" s="117" t="s">
+      <c r="A86" s="107"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="124" t="s">
         <v>422</v>
       </c>
-      <c r="D86" s="114" t="s">
+      <c r="D86" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114" t="s">
+      <c r="E86" s="121"/>
+      <c r="F86" s="121" t="s">
         <v>303</v>
       </c>
-      <c r="G86" s="119"/>
+      <c r="G86" s="126"/>
       <c r="H86" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="I86" s="114" t="s">
+      <c r="I86" s="121" t="s">
         <v>305</v>
       </c>
-      <c r="J86" s="114" t="s">
+      <c r="J86" s="121" t="s">
         <v>306</v>
       </c>
-      <c r="K86" s="114" t="s">
+      <c r="K86" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="L86" s="131" t="s">
+      <c r="L86" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="M86" s="128" t="s">
+      <c r="M86" s="135" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A87" s="100"/>
-      <c r="B87" s="97"/>
-      <c r="C87" s="119"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
-      <c r="G87" s="119"/>
+      <c r="A87" s="107"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="126"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
+      <c r="F87" s="121"/>
+      <c r="G87" s="126"/>
       <c r="H87" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="I87" s="114"/>
-      <c r="J87" s="114"/>
-      <c r="K87" s="114"/>
-      <c r="L87" s="119"/>
-      <c r="M87" s="128"/>
+      <c r="I87" s="121"/>
+      <c r="J87" s="121"/>
+      <c r="K87" s="121"/>
+      <c r="L87" s="126"/>
+      <c r="M87" s="135"/>
     </row>
     <row r="88" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A88" s="100"/>
-      <c r="B88" s="97"/>
-      <c r="C88" s="120"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
-      <c r="G88" s="119"/>
+      <c r="A88" s="107"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="121"/>
+      <c r="F88" s="121"/>
+      <c r="G88" s="126"/>
       <c r="H88" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="I88" s="114"/>
-      <c r="J88" s="114"/>
-      <c r="K88" s="114"/>
-      <c r="L88" s="120"/>
-      <c r="M88" s="128"/>
+      <c r="I88" s="121"/>
+      <c r="J88" s="121"/>
+      <c r="K88" s="121"/>
+      <c r="L88" s="127"/>
+      <c r="M88" s="135"/>
     </row>
     <row r="89" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A89" s="100"/>
-      <c r="B89" s="97"/>
-      <c r="C89" s="117" t="s">
+      <c r="A89" s="107"/>
+      <c r="B89" s="104"/>
+      <c r="C89" s="124" t="s">
         <v>423</v>
       </c>
-      <c r="D89" s="114" t="s">
+      <c r="D89" s="121" t="s">
         <v>309</v>
       </c>
-      <c r="E89" s="114"/>
-      <c r="F89" s="114" t="s">
+      <c r="E89" s="121"/>
+      <c r="F89" s="121" t="s">
         <v>303</v>
       </c>
-      <c r="G89" s="119"/>
+      <c r="G89" s="126"/>
       <c r="H89" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="I89" s="114" t="s">
+      <c r="I89" s="121" t="s">
         <v>311</v>
       </c>
-      <c r="J89" s="114" t="s">
+      <c r="J89" s="121" t="s">
         <v>312</v>
       </c>
-      <c r="K89" s="114" t="s">
+      <c r="K89" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="L89" s="131" t="s">
+      <c r="L89" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="M89" s="128" t="s">
+      <c r="M89" s="135" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A90" s="100"/>
-      <c r="B90" s="97"/>
-      <c r="C90" s="119"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="114"/>
-      <c r="G90" s="119"/>
+      <c r="A90" s="107"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="126"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="121"/>
+      <c r="F90" s="121"/>
+      <c r="G90" s="126"/>
       <c r="H90" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="I90" s="114"/>
-      <c r="J90" s="114"/>
-      <c r="K90" s="114"/>
-      <c r="L90" s="119"/>
-      <c r="M90" s="128"/>
+      <c r="I90" s="121"/>
+      <c r="J90" s="121"/>
+      <c r="K90" s="121"/>
+      <c r="L90" s="126"/>
+      <c r="M90" s="135"/>
     </row>
     <row r="91" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A91" s="100"/>
-      <c r="B91" s="97"/>
-      <c r="C91" s="119"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="114"/>
-      <c r="F91" s="114"/>
-      <c r="G91" s="119"/>
+      <c r="A91" s="107"/>
+      <c r="B91" s="104"/>
+      <c r="C91" s="126"/>
+      <c r="D91" s="121"/>
+      <c r="E91" s="121"/>
+      <c r="F91" s="121"/>
+      <c r="G91" s="126"/>
       <c r="H91" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="I91" s="114"/>
-      <c r="J91" s="114"/>
-      <c r="K91" s="114"/>
-      <c r="L91" s="119"/>
-      <c r="M91" s="128"/>
+      <c r="I91" s="121"/>
+      <c r="J91" s="121"/>
+      <c r="K91" s="121"/>
+      <c r="L91" s="126"/>
+      <c r="M91" s="135"/>
     </row>
     <row r="92" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A92" s="100"/>
-      <c r="B92" s="97"/>
-      <c r="C92" s="119"/>
-      <c r="D92" s="114"/>
-      <c r="E92" s="114"/>
-      <c r="F92" s="114"/>
-      <c r="G92" s="119"/>
+      <c r="A92" s="107"/>
+      <c r="B92" s="104"/>
+      <c r="C92" s="126"/>
+      <c r="D92" s="121"/>
+      <c r="E92" s="121"/>
+      <c r="F92" s="121"/>
+      <c r="G92" s="126"/>
       <c r="H92" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="I92" s="114"/>
-      <c r="J92" s="114"/>
-      <c r="K92" s="114"/>
-      <c r="L92" s="119"/>
-      <c r="M92" s="128"/>
+      <c r="I92" s="121"/>
+      <c r="J92" s="121"/>
+      <c r="K92" s="121"/>
+      <c r="L92" s="126"/>
+      <c r="M92" s="135"/>
     </row>
     <row r="93" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A93" s="100"/>
-      <c r="B93" s="97"/>
-      <c r="C93" s="120"/>
-      <c r="D93" s="114"/>
-      <c r="E93" s="114"/>
-      <c r="F93" s="114"/>
-      <c r="G93" s="119"/>
+      <c r="A93" s="107"/>
+      <c r="B93" s="104"/>
+      <c r="C93" s="127"/>
+      <c r="D93" s="121"/>
+      <c r="E93" s="121"/>
+      <c r="F93" s="121"/>
+      <c r="G93" s="126"/>
       <c r="H93" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="I93" s="114"/>
-      <c r="J93" s="114"/>
-      <c r="K93" s="114"/>
-      <c r="L93" s="120"/>
-      <c r="M93" s="128"/>
+      <c r="I93" s="121"/>
+      <c r="J93" s="121"/>
+      <c r="K93" s="121"/>
+      <c r="L93" s="127"/>
+      <c r="M93" s="135"/>
     </row>
     <row r="94" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A94" s="100"/>
-      <c r="B94" s="97"/>
-      <c r="C94" s="117" t="s">
+      <c r="A94" s="107"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="124" t="s">
         <v>424</v>
       </c>
-      <c r="D94" s="114" t="s">
+      <c r="D94" s="121" t="s">
         <v>317</v>
       </c>
-      <c r="E94" s="114"/>
-      <c r="F94" s="114" t="s">
+      <c r="E94" s="121"/>
+      <c r="F94" s="121" t="s">
         <v>318</v>
       </c>
-      <c r="G94" s="119"/>
+      <c r="G94" s="126"/>
       <c r="H94" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="I94" s="114" t="s">
+      <c r="I94" s="121" t="s">
         <v>320</v>
       </c>
-      <c r="J94" s="114" t="s">
+      <c r="J94" s="121" t="s">
         <v>321</v>
       </c>
-      <c r="K94" s="114" t="s">
+      <c r="K94" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="L94" s="131" t="s">
+      <c r="L94" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="M94" s="128" t="s">
+      <c r="M94" s="135" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A95" s="100"/>
-      <c r="B95" s="97"/>
-      <c r="C95" s="119"/>
-      <c r="D95" s="114"/>
-      <c r="E95" s="114"/>
-      <c r="F95" s="114"/>
-      <c r="G95" s="119"/>
+      <c r="A95" s="107"/>
+      <c r="B95" s="104"/>
+      <c r="C95" s="126"/>
+      <c r="D95" s="121"/>
+      <c r="E95" s="121"/>
+      <c r="F95" s="121"/>
+      <c r="G95" s="126"/>
       <c r="H95" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="I95" s="114"/>
-      <c r="J95" s="114"/>
-      <c r="K95" s="114"/>
-      <c r="L95" s="119"/>
-      <c r="M95" s="128"/>
+      <c r="I95" s="121"/>
+      <c r="J95" s="121"/>
+      <c r="K95" s="121"/>
+      <c r="L95" s="126"/>
+      <c r="M95" s="135"/>
     </row>
     <row r="96" spans="1:13" ht="16.2" customHeight="1">
-      <c r="A96" s="100"/>
-      <c r="B96" s="98"/>
-      <c r="C96" s="118"/>
-      <c r="D96" s="115"/>
-      <c r="E96" s="115"/>
-      <c r="F96" s="115"/>
-      <c r="G96" s="119"/>
+      <c r="A96" s="107"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="125"/>
+      <c r="D96" s="122"/>
+      <c r="E96" s="122"/>
+      <c r="F96" s="122"/>
+      <c r="G96" s="126"/>
       <c r="H96" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="I96" s="115"/>
-      <c r="J96" s="115"/>
-      <c r="K96" s="115"/>
-      <c r="L96" s="118"/>
-      <c r="M96" s="129"/>
+      <c r="I96" s="122"/>
+      <c r="J96" s="122"/>
+      <c r="K96" s="122"/>
+      <c r="L96" s="125"/>
+      <c r="M96" s="136"/>
     </row>
     <row r="97" spans="1:13" ht="16.2" customHeight="1">
-      <c r="A97" s="100"/>
-      <c r="B97" s="96" t="s">
+      <c r="A97" s="107"/>
+      <c r="B97" s="103" t="s">
         <v>408</v>
       </c>
-      <c r="C97" s="121" t="s">
+      <c r="C97" s="128" t="s">
         <v>425</v>
       </c>
-      <c r="D97" s="116" t="s">
+      <c r="D97" s="123" t="s">
         <v>323</v>
       </c>
-      <c r="E97" s="116"/>
-      <c r="F97" s="116" t="s">
+      <c r="E97" s="123"/>
+      <c r="F97" s="123" t="s">
         <v>303</v>
       </c>
-      <c r="G97" s="119"/>
+      <c r="G97" s="126"/>
       <c r="H97" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="I97" s="116" t="s">
+      <c r="I97" s="123" t="s">
         <v>324</v>
       </c>
-      <c r="J97" s="116" t="s">
+      <c r="J97" s="123" t="s">
         <v>325</v>
       </c>
-      <c r="K97" s="116" t="s">
+      <c r="K97" s="123" t="s">
         <v>288</v>
       </c>
-      <c r="L97" s="130" t="s">
+      <c r="L97" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="M97" s="132" t="s">
+      <c r="M97" s="139" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A98" s="100"/>
-      <c r="B98" s="97"/>
-      <c r="C98" s="119"/>
-      <c r="D98" s="114"/>
-      <c r="E98" s="114"/>
-      <c r="F98" s="114"/>
-      <c r="G98" s="119"/>
+      <c r="A98" s="107"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="126"/>
+      <c r="D98" s="121"/>
+      <c r="E98" s="121"/>
+      <c r="F98" s="121"/>
+      <c r="G98" s="126"/>
       <c r="H98" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="I98" s="114"/>
-      <c r="J98" s="114"/>
-      <c r="K98" s="114"/>
-      <c r="L98" s="119"/>
-      <c r="M98" s="128"/>
+      <c r="I98" s="121"/>
+      <c r="J98" s="121"/>
+      <c r="K98" s="121"/>
+      <c r="L98" s="126"/>
+      <c r="M98" s="135"/>
     </row>
     <row r="99" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A99" s="100"/>
-      <c r="B99" s="97"/>
-      <c r="C99" s="120"/>
-      <c r="D99" s="114"/>
-      <c r="E99" s="114"/>
-      <c r="F99" s="114"/>
-      <c r="G99" s="119"/>
+      <c r="A99" s="107"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="127"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
+      <c r="G99" s="126"/>
       <c r="H99" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="I99" s="114"/>
-      <c r="J99" s="114"/>
-      <c r="K99" s="114"/>
-      <c r="L99" s="120"/>
-      <c r="M99" s="128"/>
+      <c r="I99" s="121"/>
+      <c r="J99" s="121"/>
+      <c r="K99" s="121"/>
+      <c r="L99" s="127"/>
+      <c r="M99" s="135"/>
     </row>
     <row r="100" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A100" s="100"/>
-      <c r="B100" s="97"/>
-      <c r="C100" s="117" t="s">
+      <c r="A100" s="107"/>
+      <c r="B100" s="104"/>
+      <c r="C100" s="124" t="s">
         <v>426</v>
       </c>
-      <c r="D100" s="114" t="s">
+      <c r="D100" s="121" t="s">
         <v>328</v>
       </c>
-      <c r="E100" s="114"/>
-      <c r="F100" s="114" t="s">
+      <c r="E100" s="121"/>
+      <c r="F100" s="121" t="s">
         <v>329</v>
       </c>
-      <c r="G100" s="119"/>
+      <c r="G100" s="126"/>
       <c r="H100" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="I100" s="114" t="s">
+      <c r="I100" s="121" t="s">
         <v>330</v>
       </c>
-      <c r="J100" s="114" t="s">
+      <c r="J100" s="121" t="s">
         <v>331</v>
       </c>
-      <c r="K100" s="114" t="s">
+      <c r="K100" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="L100" s="131" t="s">
+      <c r="L100" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="M100" s="128" t="s">
+      <c r="M100" s="135" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A101" s="100"/>
-      <c r="B101" s="97"/>
-      <c r="C101" s="119"/>
-      <c r="D101" s="114"/>
-      <c r="E101" s="114"/>
-      <c r="F101" s="114"/>
-      <c r="G101" s="119"/>
+      <c r="A101" s="107"/>
+      <c r="B101" s="104"/>
+      <c r="C101" s="126"/>
+      <c r="D101" s="121"/>
+      <c r="E101" s="121"/>
+      <c r="F101" s="121"/>
+      <c r="G101" s="126"/>
       <c r="H101" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="I101" s="114"/>
-      <c r="J101" s="114"/>
-      <c r="K101" s="114"/>
-      <c r="L101" s="119"/>
-      <c r="M101" s="128"/>
+      <c r="I101" s="121"/>
+      <c r="J101" s="121"/>
+      <c r="K101" s="121"/>
+      <c r="L101" s="126"/>
+      <c r="M101" s="135"/>
     </row>
     <row r="102" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A102" s="100"/>
-      <c r="B102" s="97"/>
-      <c r="C102" s="119"/>
-      <c r="D102" s="114"/>
-      <c r="E102" s="114"/>
-      <c r="F102" s="114"/>
-      <c r="G102" s="119"/>
+      <c r="A102" s="107"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="126"/>
+      <c r="D102" s="121"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="121"/>
+      <c r="G102" s="126"/>
       <c r="H102" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="I102" s="114"/>
-      <c r="J102" s="114"/>
-      <c r="K102" s="114"/>
-      <c r="L102" s="119"/>
-      <c r="M102" s="128"/>
+      <c r="I102" s="121"/>
+      <c r="J102" s="121"/>
+      <c r="K102" s="121"/>
+      <c r="L102" s="126"/>
+      <c r="M102" s="135"/>
     </row>
     <row r="103" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A103" s="100"/>
-      <c r="B103" s="97"/>
-      <c r="C103" s="120"/>
-      <c r="D103" s="114"/>
-      <c r="E103" s="114"/>
-      <c r="F103" s="114"/>
-      <c r="G103" s="119"/>
+      <c r="A103" s="107"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="127"/>
+      <c r="D103" s="121"/>
+      <c r="E103" s="121"/>
+      <c r="F103" s="121"/>
+      <c r="G103" s="126"/>
       <c r="H103" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="I103" s="114"/>
-      <c r="J103" s="114"/>
-      <c r="K103" s="114"/>
-      <c r="L103" s="120"/>
-      <c r="M103" s="128"/>
+      <c r="I103" s="121"/>
+      <c r="J103" s="121"/>
+      <c r="K103" s="121"/>
+      <c r="L103" s="127"/>
+      <c r="M103" s="135"/>
     </row>
     <row r="104" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A104" s="100"/>
-      <c r="B104" s="97"/>
-      <c r="C104" s="117" t="s">
+      <c r="A104" s="107"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="124" t="s">
         <v>427</v>
       </c>
-      <c r="D104" s="114" t="s">
+      <c r="D104" s="121" t="s">
         <v>335</v>
       </c>
-      <c r="E104" s="114"/>
-      <c r="F104" s="114" t="s">
+      <c r="E104" s="121"/>
+      <c r="F104" s="121" t="s">
         <v>303</v>
       </c>
-      <c r="G104" s="119"/>
+      <c r="G104" s="126"/>
       <c r="H104" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="I104" s="114" t="s">
+      <c r="I104" s="121" t="s">
         <v>336</v>
       </c>
-      <c r="J104" s="114" t="s">
+      <c r="J104" s="121" t="s">
         <v>337</v>
       </c>
-      <c r="K104" s="114" t="s">
+      <c r="K104" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="L104" s="131" t="s">
+      <c r="L104" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="M104" s="128" t="s">
+      <c r="M104" s="135" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="16.2" customHeight="1">
-      <c r="A105" s="100"/>
-      <c r="B105" s="98"/>
-      <c r="C105" s="118"/>
-      <c r="D105" s="115"/>
-      <c r="E105" s="115"/>
-      <c r="F105" s="115"/>
-      <c r="G105" s="119"/>
+      <c r="A105" s="107"/>
+      <c r="B105" s="105"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="122"/>
+      <c r="E105" s="122"/>
+      <c r="F105" s="122"/>
+      <c r="G105" s="126"/>
       <c r="H105" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="I105" s="115"/>
-      <c r="J105" s="115"/>
-      <c r="K105" s="115"/>
-      <c r="L105" s="118"/>
-      <c r="M105" s="129"/>
+      <c r="I105" s="122"/>
+      <c r="J105" s="122"/>
+      <c r="K105" s="122"/>
+      <c r="L105" s="125"/>
+      <c r="M105" s="136"/>
     </row>
     <row r="106" spans="1:13" ht="16.2" customHeight="1">
-      <c r="A106" s="100"/>
-      <c r="B106" s="96" t="s">
+      <c r="A106" s="107"/>
+      <c r="B106" s="103" t="s">
         <v>409</v>
       </c>
-      <c r="C106" s="121" t="s">
+      <c r="C106" s="128" t="s">
         <v>528</v>
       </c>
-      <c r="D106" s="116" t="s">
+      <c r="D106" s="123" t="s">
         <v>340</v>
       </c>
-      <c r="E106" s="116"/>
-      <c r="F106" s="116" t="s">
+      <c r="E106" s="123"/>
+      <c r="F106" s="123" t="s">
         <v>341</v>
       </c>
-      <c r="G106" s="119"/>
+      <c r="G106" s="126"/>
       <c r="H106" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="I106" s="116" t="s">
+      <c r="I106" s="123" t="s">
         <v>343</v>
       </c>
-      <c r="J106" s="116" t="s">
+      <c r="J106" s="123" t="s">
         <v>344</v>
       </c>
-      <c r="K106" s="116" t="s">
+      <c r="K106" s="123" t="s">
         <v>288</v>
       </c>
-      <c r="L106" s="130" t="s">
+      <c r="L106" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="M106" s="132" t="s">
+      <c r="M106" s="139" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A107" s="100"/>
-      <c r="B107" s="97"/>
-      <c r="C107" s="120"/>
-      <c r="D107" s="114"/>
-      <c r="E107" s="114"/>
-      <c r="F107" s="114"/>
-      <c r="G107" s="119"/>
+      <c r="A107" s="107"/>
+      <c r="B107" s="104"/>
+      <c r="C107" s="127"/>
+      <c r="D107" s="121"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="121"/>
+      <c r="G107" s="126"/>
       <c r="H107" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="I107" s="114"/>
-      <c r="J107" s="114"/>
-      <c r="K107" s="114"/>
-      <c r="L107" s="120"/>
-      <c r="M107" s="128"/>
+      <c r="I107" s="121"/>
+      <c r="J107" s="121"/>
+      <c r="K107" s="121"/>
+      <c r="L107" s="127"/>
+      <c r="M107" s="135"/>
     </row>
     <row r="108" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A108" s="100"/>
-      <c r="B108" s="97"/>
-      <c r="C108" s="117" t="s">
+      <c r="A108" s="107"/>
+      <c r="B108" s="104"/>
+      <c r="C108" s="124" t="s">
         <v>529</v>
       </c>
-      <c r="D108" s="114" t="s">
+      <c r="D108" s="121" t="s">
         <v>347</v>
       </c>
-      <c r="E108" s="114"/>
-      <c r="F108" s="114" t="s">
+      <c r="E108" s="121"/>
+      <c r="F108" s="121" t="s">
         <v>348</v>
       </c>
-      <c r="G108" s="119"/>
+      <c r="G108" s="126"/>
       <c r="H108" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="I108" s="114" t="s">
+      <c r="I108" s="121" t="s">
         <v>350</v>
       </c>
-      <c r="J108" s="114" t="s">
+      <c r="J108" s="121" t="s">
         <v>351</v>
       </c>
-      <c r="K108" s="114" t="s">
+      <c r="K108" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="L108" s="131" t="s">
+      <c r="L108" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="M108" s="128" t="s">
+      <c r="M108" s="135" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="16.2" customHeight="1">
-      <c r="A109" s="101"/>
-      <c r="B109" s="98"/>
-      <c r="C109" s="118"/>
-      <c r="D109" s="115"/>
-      <c r="E109" s="115"/>
-      <c r="F109" s="115"/>
-      <c r="G109" s="118"/>
+      <c r="A109" s="108"/>
+      <c r="B109" s="105"/>
+      <c r="C109" s="125"/>
+      <c r="D109" s="122"/>
+      <c r="E109" s="122"/>
+      <c r="F109" s="122"/>
+      <c r="G109" s="125"/>
       <c r="H109" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="I109" s="115"/>
-      <c r="J109" s="115"/>
-      <c r="K109" s="115"/>
-      <c r="L109" s="118"/>
-      <c r="M109" s="129"/>
+      <c r="I109" s="122"/>
+      <c r="J109" s="122"/>
+      <c r="K109" s="122"/>
+      <c r="L109" s="125"/>
+      <c r="M109" s="136"/>
     </row>
     <row r="110" spans="1:13" ht="16.2" customHeight="1"/>
   </sheetData>
@@ -8983,10 +8984,10 @@
         <v>461</v>
       </c>
       <c r="D2" s="69"/>
-      <c r="E2" s="155" t="s">
+      <c r="E2" s="162" t="s">
         <v>462</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="162" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="69" t="s">
@@ -9023,8 +9024,8 @@
         <v>468</v>
       </c>
       <c r="D3" s="72"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
       <c r="G3" s="72" t="s">
         <v>469</v>
       </c>
@@ -9059,8 +9060,8 @@
         <v>474</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="72" t="s">
         <v>475</v>
       </c>
@@ -9095,8 +9096,8 @@
         <v>480</v>
       </c>
       <c r="D5" s="72"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
       <c r="G5" s="72" t="s">
         <v>52</v>
       </c>
@@ -9131,8 +9132,8 @@
         <v>485</v>
       </c>
       <c r="D6" s="72"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
       <c r="G6" s="72" t="s">
         <v>58</v>
       </c>
@@ -9167,8 +9168,8 @@
         <v>489</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
       <c r="G7" s="72" t="s">
         <v>62</v>
       </c>
@@ -9203,8 +9204,8 @@
         <v>493</v>
       </c>
       <c r="D8" s="74"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
       <c r="G8" s="74" t="s">
         <v>66</v>
       </c>
@@ -9283,10 +9284,10 @@
         <v>498</v>
       </c>
       <c r="D10" s="69"/>
-      <c r="E10" s="157" t="s">
+      <c r="E10" s="164" t="s">
         <v>499</v>
       </c>
-      <c r="F10" s="157" t="s">
+      <c r="F10" s="164" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="69" t="s">
@@ -9323,8 +9324,8 @@
         <v>503</v>
       </c>
       <c r="D11" s="72"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
       <c r="G11" s="72" t="s">
         <v>504</v>
       </c>
@@ -9359,8 +9360,8 @@
         <v>507</v>
       </c>
       <c r="D12" s="72"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
       <c r="G12" s="72" t="s">
         <v>128</v>
       </c>
@@ -9395,8 +9396,8 @@
         <v>510</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
       <c r="G13" s="72" t="s">
         <v>442</v>
       </c>
@@ -9421,116 +9422,116 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="79.95" customHeight="1">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="160" t="s">
         <v>368</v>
       </c>
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="161" t="s">
         <v>512</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="161" t="s">
         <v>513</v>
       </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="154" t="s">
+      <c r="D14" s="161"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="161" t="s">
         <v>434</v>
       </c>
-      <c r="H14" s="154" t="s">
+      <c r="H14" s="161" t="s">
         <v>363</v>
       </c>
-      <c r="I14" s="154" t="s">
+      <c r="I14" s="161" t="s">
         <v>514</v>
       </c>
-      <c r="J14" s="154" t="s">
+      <c r="J14" s="161" t="s">
         <v>513</v>
       </c>
       <c r="K14" s="78" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="L14" s="154" t="s">
+      <c r="L14" s="161" t="s">
         <v>359</v>
       </c>
-      <c r="M14" s="154" t="s">
+      <c r="M14" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="154" t="s">
+      <c r="N14" s="161" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="79.95" customHeight="1">
-      <c r="A15" s="153"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
       <c r="K15" s="78" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
     </row>
     <row r="16" spans="1:14" ht="79.95" customHeight="1">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="160" t="s">
         <v>370</v>
       </c>
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="161" t="s">
         <v>515</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="161" t="s">
         <v>516</v>
       </c>
-      <c r="D16" s="154"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="154" t="s">
+      <c r="D16" s="161"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="161" t="s">
         <v>435</v>
       </c>
-      <c r="H16" s="154" t="s">
+      <c r="H16" s="161" t="s">
         <v>363</v>
       </c>
-      <c r="I16" s="154" t="s">
+      <c r="I16" s="161" t="s">
         <v>517</v>
       </c>
-      <c r="J16" s="154" t="s">
+      <c r="J16" s="161" t="s">
         <v>516</v>
       </c>
       <c r="K16" s="78" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="L16" s="154" t="s">
+      <c r="L16" s="161" t="s">
         <v>359</v>
       </c>
-      <c r="M16" s="154" t="s">
+      <c r="M16" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="154" t="s">
+      <c r="N16" s="161" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="79.95" customHeight="1">
-      <c r="A17" s="153"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
       <c r="K17" s="78" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
     </row>
     <row r="18" spans="1:14" ht="79.95" customHeight="1">
       <c r="A18" s="77" t="s">
@@ -9543,8 +9544,8 @@
         <v>519</v>
       </c>
       <c r="D18" s="72"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
       <c r="G18" s="72" t="s">
         <v>520</v>
       </c>
@@ -9579,8 +9580,8 @@
         <v>522</v>
       </c>
       <c r="D19" s="74"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
       <c r="G19" s="74" t="s">
         <v>523</v>
       </c>
@@ -9834,9 +9835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC36FC4-728F-4FCB-8DF0-C9CC71E27DF2}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D15"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
@@ -9844,8 +9847,8 @@
     <col min="1" max="1" width="22.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="80.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="77.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="66" style="1" customWidth="1"/>
@@ -9857,52 +9860,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.2" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="161" t="s">
+      <c r="C1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="161" t="s">
+      <c r="D1" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="161" t="s">
+      <c r="E1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="161" t="s">
+      <c r="F1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="161" t="s">
+      <c r="G1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="161" t="s">
+      <c r="H1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="161" t="s">
+      <c r="I1" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="161" t="s">
+      <c r="J1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="162" t="s">
+      <c r="K1" s="98" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="89.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="99" t="s">
         <v>546</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>560</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="164" t="s">
+      <c r="D2" s="167" t="s">
         <v>574</v>
       </c>
-      <c r="E2" s="164" t="s">
+      <c r="E2" s="167" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -9911,13 +9914,13 @@
       <c r="G2" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="100" t="s">
         <v>577</v>
       </c>
-      <c r="I2" s="165" t="s">
+      <c r="I2" s="100" t="s">
         <v>577</v>
       </c>
-      <c r="J2" s="166" t="s">
+      <c r="J2" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K2" s="81" t="s">
@@ -9925,28 +9928,28 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="89.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="99" t="s">
         <v>547</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>561</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
       <c r="F3" s="3" t="s">
         <v>578</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="102" t="s">
         <v>579</v>
       </c>
-      <c r="I3" s="167" t="s">
+      <c r="I3" s="102" t="s">
         <v>579</v>
       </c>
-      <c r="J3" s="166" t="s">
+      <c r="J3" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K3" s="81" t="s">
@@ -9954,28 +9957,28 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="89.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="99" t="s">
         <v>548</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>562</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
       <c r="F4" s="3" t="s">
         <v>580</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="H4" s="167" t="s">
+      <c r="H4" s="102" t="s">
         <v>582</v>
       </c>
-      <c r="I4" s="167" t="s">
+      <c r="I4" s="102" t="s">
         <v>582</v>
       </c>
-      <c r="J4" s="166" t="s">
+      <c r="J4" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K4" s="81" t="s">
@@ -9983,28 +9986,28 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="89.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="99" t="s">
         <v>549</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>563</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
       <c r="F5" s="3" t="s">
         <v>583</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="H5" s="167" t="s">
+      <c r="H5" s="102" t="s">
         <v>579</v>
       </c>
-      <c r="I5" s="167" t="s">
+      <c r="I5" s="102" t="s">
         <v>579</v>
       </c>
-      <c r="J5" s="166" t="s">
+      <c r="J5" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K5" s="81" t="s">
@@ -10012,28 +10015,28 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="89.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="99" t="s">
         <v>550</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>564</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
       <c r="F6" s="3" t="s">
         <v>584</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="H6" s="165" t="s">
+      <c r="H6" s="100" t="s">
         <v>585</v>
       </c>
-      <c r="I6" s="165" t="s">
+      <c r="I6" s="100" t="s">
         <v>585</v>
       </c>
-      <c r="J6" s="166" t="s">
+      <c r="J6" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K6" s="81" t="s">
@@ -10041,28 +10044,28 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="89.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="99" t="s">
         <v>551</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>565</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
       <c r="F7" s="3" t="s">
         <v>586</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="H7" s="165" t="s">
+      <c r="H7" s="100" t="s">
         <v>589</v>
       </c>
-      <c r="I7" s="165" t="s">
+      <c r="I7" s="100" t="s">
         <v>589</v>
       </c>
-      <c r="J7" s="166" t="s">
+      <c r="J7" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K7" s="81" t="s">
@@ -10070,28 +10073,28 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="89.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="99" t="s">
         <v>552</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>566</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
       <c r="F8" s="3" t="s">
         <v>590</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="H8" s="165" t="s">
+      <c r="H8" s="100" t="s">
         <v>594</v>
       </c>
-      <c r="I8" s="165" t="s">
+      <c r="I8" s="100" t="s">
         <v>594</v>
       </c>
-      <c r="J8" s="166" t="s">
+      <c r="J8" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K8" s="81" t="s">
@@ -10099,28 +10102,28 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="89.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="163" t="s">
+      <c r="A9" s="99" t="s">
         <v>553</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>567</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
       <c r="F9" s="3" t="s">
         <v>592</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="H9" s="165" t="s">
+      <c r="H9" s="100" t="s">
         <v>595</v>
       </c>
-      <c r="I9" s="165" t="s">
+      <c r="I9" s="100" t="s">
         <v>595</v>
       </c>
-      <c r="J9" s="166" t="s">
+      <c r="J9" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K9" s="81" t="s">
@@ -10128,28 +10131,28 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="89.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="99" t="s">
         <v>554</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>568</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
       <c r="F10" s="3" t="s">
         <v>596</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="H10" s="165" t="s">
+      <c r="H10" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="I10" s="165" t="s">
+      <c r="I10" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="J10" s="166" t="s">
+      <c r="J10" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K10" s="81" t="s">
@@ -10157,28 +10160,28 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="89.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="163" t="s">
+      <c r="A11" s="99" t="s">
         <v>555</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>569</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
       <c r="F11" s="3" t="s">
         <v>598</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="H11" s="165" t="s">
+      <c r="H11" s="100" t="s">
         <v>600</v>
       </c>
-      <c r="I11" s="165" t="s">
+      <c r="I11" s="100" t="s">
         <v>600</v>
       </c>
-      <c r="J11" s="166" t="s">
+      <c r="J11" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K11" s="81" t="s">
@@ -10186,28 +10189,28 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="298.8" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="99" t="s">
         <v>556</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>570</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
       <c r="F12" s="3" t="s">
         <v>601</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="H12" s="165" t="s">
+      <c r="H12" s="100" t="s">
         <v>603</v>
       </c>
-      <c r="I12" s="165" t="s">
+      <c r="I12" s="100" t="s">
         <v>603</v>
       </c>
-      <c r="J12" s="166" t="s">
+      <c r="J12" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K12" s="81" t="s">
@@ -10215,28 +10218,28 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="89.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="99" t="s">
         <v>557</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>571</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
       <c r="F13" s="3" t="s">
         <v>604</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="H13" s="165" t="s">
+      <c r="H13" s="100" t="s">
         <v>606</v>
       </c>
-      <c r="I13" s="165" t="s">
+      <c r="I13" s="100" t="s">
         <v>606</v>
       </c>
-      <c r="J13" s="166" t="s">
+      <c r="J13" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K13" s="81" t="s">
@@ -10244,28 +10247,28 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="303" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="99" t="s">
         <v>558</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>572</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
       <c r="F14" s="3" t="s">
         <v>607</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="H14" s="165" t="s">
+      <c r="H14" s="100" t="s">
         <v>612</v>
       </c>
-      <c r="I14" s="165" t="s">
+      <c r="I14" s="100" t="s">
         <v>612</v>
       </c>
-      <c r="J14" s="166" t="s">
+      <c r="J14" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K14" s="81" t="s">
@@ -10273,28 +10276,28 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="89.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="99" t="s">
         <v>559</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>573</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
       <c r="F15" s="3" t="s">
         <v>609</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="H15" s="165" t="s">
+      <c r="H15" s="100" t="s">
         <v>611</v>
       </c>
-      <c r="I15" s="165" t="s">
+      <c r="I15" s="100" t="s">
         <v>611</v>
       </c>
-      <c r="J15" s="166" t="s">
+      <c r="J15" s="101" t="s">
         <v>613</v>
       </c>
       <c r="K15" s="81" t="s">
